--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.439664333333333</v>
+        <v>0.6240709999999999</v>
       </c>
       <c r="H2">
-        <v>19.318993</v>
+        <v>1.872213</v>
       </c>
       <c r="I2">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="J2">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N2">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q2">
-        <v>12.16401719218433</v>
+        <v>0.143425245362</v>
       </c>
       <c r="R2">
-        <v>109.476154729659</v>
+        <v>1.290827208258</v>
       </c>
       <c r="S2">
-        <v>0.40333333444978</v>
+        <v>0.007296562233691486</v>
       </c>
       <c r="T2">
-        <v>0.40333333444978</v>
+        <v>0.007296562233691487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.439664333333333</v>
+        <v>0.6240709999999999</v>
       </c>
       <c r="H3">
-        <v>19.318993</v>
+        <v>1.872213</v>
       </c>
       <c r="I3">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="J3">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q3">
-        <v>7.000548363992778</v>
+        <v>0.6784265439816666</v>
       </c>
       <c r="R3">
-        <v>63.004935275935</v>
+        <v>6.105838895834999</v>
       </c>
       <c r="S3">
-        <v>0.232123522189722</v>
+        <v>0.03451401799352959</v>
       </c>
       <c r="T3">
-        <v>0.2321235221897219</v>
+        <v>0.03451401799352959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.439664333333333</v>
+        <v>0.6240709999999999</v>
       </c>
       <c r="H4">
-        <v>19.318993</v>
+        <v>1.872213</v>
       </c>
       <c r="I4">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="J4">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N4">
         <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q4">
-        <v>7.560537281309888</v>
+        <v>0.7326953420943331</v>
       </c>
       <c r="R4">
-        <v>68.04483553178899</v>
+        <v>6.594258078848998</v>
       </c>
       <c r="S4">
-        <v>0.250691581878223</v>
+        <v>0.03727486851030774</v>
       </c>
       <c r="T4">
-        <v>0.250691581878223</v>
+        <v>0.03727486851030775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8273623333333333</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H5">
-        <v>2.482087</v>
+        <v>19.318993</v>
       </c>
       <c r="I5">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="J5">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N5">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q5">
-        <v>1.562822086042333</v>
+        <v>1.479976536415333</v>
       </c>
       <c r="R5">
-        <v>14.065398774381</v>
+        <v>13.319788827738</v>
       </c>
       <c r="S5">
-        <v>0.05181990728525297</v>
+        <v>0.07529177220580682</v>
       </c>
       <c r="T5">
-        <v>0.05181990728525297</v>
+        <v>0.07529177220580682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8273623333333333</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H6">
-        <v>2.482087</v>
+        <v>19.318993</v>
       </c>
       <c r="I6">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="J6">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q6">
-        <v>0.8994242136294446</v>
+        <v>7.000548363992778</v>
       </c>
       <c r="R6">
-        <v>8.094817922665001</v>
+        <v>63.004935275935</v>
       </c>
       <c r="S6">
-        <v>0.02982302321975687</v>
+        <v>0.3561432764428366</v>
       </c>
       <c r="T6">
-        <v>0.02982302321975686</v>
+        <v>0.3561432764428366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8273623333333333</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H7">
-        <v>2.482087</v>
+        <v>19.318993</v>
       </c>
       <c r="I7">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="J7">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N7">
         <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q7">
-        <v>0.9713710905612222</v>
+        <v>7.560537281309888</v>
       </c>
       <c r="R7">
-        <v>8.742339815051</v>
+        <v>68.044835531789</v>
       </c>
       <c r="S7">
-        <v>0.03220863097726537</v>
+        <v>0.3846319429608467</v>
       </c>
       <c r="T7">
-        <v>0.03220863097726537</v>
+        <v>0.3846319429608469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.482087</v>
+      </c>
+      <c r="I8">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="J8">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.229822</v>
+      </c>
+      <c r="N8">
+        <v>0.689466</v>
+      </c>
+      <c r="O8">
+        <v>0.09226175421862418</v>
+      </c>
+      <c r="P8">
+        <v>0.09226175421862419</v>
+      </c>
+      <c r="Q8">
+        <v>0.1901460661713333</v>
+      </c>
+      <c r="R8">
+        <v>1.711314595542</v>
+      </c>
+      <c r="S8">
+        <v>0.009673419779125877</v>
+      </c>
+      <c r="T8">
+        <v>0.009673419779125879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.482087</v>
+      </c>
+      <c r="I9">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="J9">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.087098333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.261295</v>
+      </c>
+      <c r="O9">
+        <v>0.4364142651333466</v>
+      </c>
+      <c r="P9">
+        <v>0.4364142651333466</v>
+      </c>
+      <c r="Q9">
+        <v>0.8994242136294444</v>
+      </c>
+      <c r="R9">
+        <v>8.094817922664999</v>
+      </c>
+      <c r="S9">
+        <v>0.04575697069698046</v>
+      </c>
+      <c r="T9">
+        <v>0.04575697069698046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.482087</v>
+      </c>
+      <c r="I10">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="J10">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.174057666666666</v>
+      </c>
+      <c r="N10">
+        <v>3.522173</v>
+      </c>
+      <c r="O10">
+        <v>0.4713239806480292</v>
+      </c>
+      <c r="P10">
+        <v>0.4713239806480293</v>
+      </c>
+      <c r="Q10">
+        <v>0.9713710905612221</v>
+      </c>
+      <c r="R10">
+        <v>8.742339815050999</v>
+      </c>
+      <c r="S10">
+        <v>0.04941716917687475</v>
+      </c>
+      <c r="T10">
+        <v>0.04941716917687476</v>
       </c>
     </row>
   </sheetData>
